--- a/학습내용_멀티캠퍼스(2019.05.27~).xlsx
+++ b/학습내용_멀티캠퍼스(2019.05.27~).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15Z970-GA5BK\Desktop\multicamp_0719\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15Z970-GA5BK\Desktop\multicampus0724\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="288">
   <si>
     <t>9:00~10:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1643,7 +1643,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7장 정보추출</t>
+    <t xml:space="preserve">0900~1400 7장 정보추출
+1400~ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0725</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0900 데이터분석 - 설계 역할분담 아웃풋 데이터 일관
+queue = First In First Out 동시에 여러 개의 작업을 진행하고자 할 때 사용
+thread
+11:30 실습1\단어의표현/ 유클리디안 유사도, 코사인 유사도
+자연어처리에서는 단어간의 유사도를 측정할땐 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cosine유사도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>보편적으로 사용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0726</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">**시험 문제
+~stemming과 lematization
+~불용어처리(stopwords)
+~원핫인코딩, 
+~유사도 계산: 유클리디언, 자카드, 코사인 유사도
+~원한 인코딩의 한계점을 극복 = 단어 인베딩(원핫인코딩은 차원이 증가하지만 인베딩은 밀집벡터로 해결(차원의저주 해결), 단어의 의미를 담기 위해 밀집벡터는 
+~bag of word 개별단어 하나만 바라봄, 문맥 파악 불가
+~TDM 개별단어 하나만 바라봄, 문맥 파악 불가
+~ n-Gram
+중요= 주요 term들, 장단점 비교
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자연어처리 쿡북
+~1장 말뭉치와 워드넷
+~3장 편집거리 측정
+~4장 정규표현식 ^가 맨 앞에 나오면 문자열의 시작을 뜻하고 [] 대괄호안에 처음에 등장하면 NOT이라는 의미를 가진다. 각 연산자들이 어떤 의미를 가지고 있는지, 특정 패턴을 위한 정규표현식
+~5장 품사 태깅
+~7장 청킹
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:30 자연어처리 전체 리뷰
+11:00 문장의표현 TD-IDF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1776,7 +1864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1840,11 +1928,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2879,7 +2979,7 @@
       <c r="J2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="23" t="s">
         <v>137</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -2944,7 +3044,7 @@
       <c r="J3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="22"/>
+      <c r="K3" s="24"/>
       <c r="L3" s="3" t="s">
         <v>138</v>
       </c>
@@ -2998,7 +3098,7 @@
       <c r="J4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="22"/>
+      <c r="K4" s="24"/>
       <c r="L4" s="3" t="s">
         <v>139</v>
       </c>
@@ -3380,7 +3480,7 @@
       <c r="G2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="24" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3403,7 +3503,7 @@
       <c r="G3" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:10" ht="174" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
@@ -3424,7 +3524,7 @@
       <c r="G4" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
@@ -3436,7 +3536,7 @@
       <c r="D5" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:10" ht="243.6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
@@ -3457,7 +3557,7 @@
       <c r="G6" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="24"/>
       <c r="J6" s="11" t="s">
         <v>256</v>
       </c>
@@ -3481,7 +3581,7 @@
       <c r="G7" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="24"/>
       <c r="J7" s="11" t="s">
         <v>256</v>
       </c>
@@ -3502,7 +3602,7 @@
       <c r="G8" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="24"/>
       <c r="J8" s="11" t="s">
         <v>257</v>
       </c>
@@ -3529,7 +3629,7 @@
       <c r="G9" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="24"/>
       <c r="J9" s="11" t="s">
         <v>258</v>
       </c>
@@ -3541,7 +3641,7 @@
       <c r="C10" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="24"/>
       <c r="J10" s="11" t="s">
         <v>259</v>
       </c>
@@ -3568,10 +3668,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3633,7 +3733,10 @@
       <c r="E3" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="26">
+        <f>(16000-11000)/(16000+11000)</f>
+        <v>0.18518518518518517</v>
+      </c>
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.4">
@@ -3652,6 +3755,7 @@
       <c r="E4" s="12" t="s">
         <v>273</v>
       </c>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:7" ht="238.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
@@ -3677,16 +3781,40 @@
       <c r="B6" s="12" t="s">
         <v>278</v>
       </c>
+      <c r="C6" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="158.4" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="22" t="s">
         <v>280</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="365.4" x14ac:dyDescent="0.4">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/학습내용_멀티캠퍼스(2019.05.27~).xlsx
+++ b/학습내용_멀티캠퍼스(2019.05.27~).xlsx
@@ -1731,7 +1731,8 @@
   </si>
   <si>
     <t>09:30 자연어처리 전체 리뷰
-11:00 문장의표현 TD-IDF</t>
+11:00 문장의표현 TD-IDF
+1600~ 논문발표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/학습내용_멀티캠퍼스(2019.05.27~).xlsx
+++ b/학습내용_멀티캠퍼스(2019.05.27~).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="293">
   <si>
     <t>9:00~10:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1733,6 +1733,27 @@
     <t>09:30 자연어처리 전체 리뷰
 11:00 문장의표현 TD-IDF
 1600~ 논문발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0729</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0730</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00~11:00 실습1 -&gt; 핵심키워드추출 -&gt; TF-IDF 실습
+11:00~11:30 textRank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:30~11:00 문서요약(luhn summarize)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1935,17 +1956,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2980,7 +3001,7 @@
       <c r="J2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="25" t="s">
         <v>137</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -3045,7 +3066,7 @@
       <c r="J3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="24"/>
+      <c r="K3" s="26"/>
       <c r="L3" s="3" t="s">
         <v>138</v>
       </c>
@@ -3099,7 +3120,7 @@
       <c r="J4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="24"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="3" t="s">
         <v>139</v>
       </c>
@@ -3481,7 +3502,7 @@
       <c r="G2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="26" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3504,7 +3525,7 @@
       <c r="G3" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H3" s="24"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="174" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
@@ -3525,7 +3546,7 @@
       <c r="G4" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H4" s="24"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
@@ -3537,7 +3558,7 @@
       <c r="D5" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H5" s="24"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="243.6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
@@ -3558,7 +3579,7 @@
       <c r="G6" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="26"/>
       <c r="J6" s="11" t="s">
         <v>256</v>
       </c>
@@ -3582,7 +3603,7 @@
       <c r="G7" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="26"/>
       <c r="J7" s="11" t="s">
         <v>256</v>
       </c>
@@ -3603,7 +3624,7 @@
       <c r="G8" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="26"/>
       <c r="J8" s="11" t="s">
         <v>257</v>
       </c>
@@ -3630,7 +3651,7 @@
       <c r="G9" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="26"/>
       <c r="J9" s="11" t="s">
         <v>258</v>
       </c>
@@ -3642,7 +3663,7 @@
       <c r="C10" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="H10" s="24"/>
+      <c r="H10" s="26"/>
       <c r="J10" s="11" t="s">
         <v>259</v>
       </c>
@@ -3669,18 +3690,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="7" width="25.69921875" customWidth="1"/>
+    <col min="8" max="8" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>247</v>
       </c>
@@ -3703,7 +3726,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
         <v>254</v>
@@ -3720,7 +3743,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" s="19" customFormat="1" ht="351.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" s="19" customFormat="1" ht="351.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
       <c r="B3" s="16" t="s">
         <v>255</v>
@@ -3734,13 +3757,16 @@
       <c r="E3" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="F3" s="26">
-        <f>(16000-11000)/(16000+11000)</f>
-        <v>0.18518518518518517</v>
-      </c>
+      <c r="F3" s="24"/>
       <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>266</v>
       </c>
@@ -3756,9 +3782,9 @@
       <c r="E4" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" ht="238.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" ht="238.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>267</v>
       </c>
@@ -3775,7 +3801,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>276</v>
       </c>
@@ -3792,7 +3818,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="158.4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="158.4" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>277</v>
       </c>
@@ -3809,13 +3835,23 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="365.4" x14ac:dyDescent="0.4">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>286</v>
+    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="C9" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/학습내용_멀티캠퍼스(2019.05.27~).xlsx
+++ b/학습내용_멀티캠퍼스(2019.05.27~).xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="18312" windowHeight="11652" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="96" windowWidth="18312" windowHeight="11652" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="5월" sheetId="1" r:id="rId1"/>
     <sheet name="6월" sheetId="2" r:id="rId2"/>
     <sheet name="7월" sheetId="3" r:id="rId3"/>
     <sheet name="7월1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="298">
   <si>
     <t>9:00~10:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1754,6 +1755,63 @@
   </si>
   <si>
     <t>09:30~11:00 문서요약(luhn summarize)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00~14:00 텍스트 요약 실습
+14:00~16:40 논문 스터디
+16:40~21:00 멘토님과 저녁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">09:00~11:00 뉴스본문 요약(하지 않고 발표 준비함.
+11:20~ PCA 차원의 저주 해결법: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"자연어처리 이론 및 실습"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 차원축소, 공분산을 통해 3차원 데이터가 2차원 데이터로 그리고 x, y축이  표준화로 같아짐
+11:20~14:00 윤성이형한테 계속 pRank공식 질문하면서 이해하려함
+14:30~15:00 국승지, 현진님의 pRank공식 설명회
+15:00~ 논문요약발표
+15:30~ !!나 발표!!! 결과 만족
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1조
+2조 pRank
+3조
+4조
+5조 참조할만한 논문에 대한 설명 다수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3441,7 +3499,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3692,8 +3750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3859,4 +3917,71 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" s="21" customFormat="1" ht="198" x14ac:dyDescent="0.4">
+      <c r="D3" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/학습내용_멀티캠퍼스(2019.05.27~).xlsx
+++ b/학습내용_멀티캠퍼스(2019.05.27~).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="300">
   <si>
     <t>9:00~10:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1812,6 +1812,18 @@
 3조
 4조
 5조 참조할만한 논문에 대한 설명 다수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00~11:00 eigenvector 고유값, 고유벡터의 의미
+평균 = 2
+분산 = 1
+람바 = 2 = 분산 = 2
+13:00~15:00 voc논문 데이터베이스 구조화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3921,14 +3933,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="18.09765625" customWidth="1"/>
     <col min="4" max="4" width="9.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.09765625" customWidth="1"/>
   </cols>
@@ -3980,6 +3993,16 @@
         <v>297</v>
       </c>
     </row>
+    <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="19" customFormat="1" ht="92.4" x14ac:dyDescent="0.4">
+      <c r="A5" s="20" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/학습내용_멀티캠퍼스(2019.05.27~).xlsx
+++ b/학습내용_멀티캠퍼스(2019.05.27~).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="315">
   <si>
     <t>9:00~10:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1824,6 +1824,90 @@
 분산 = 1
 람바 = 2 = 분산 = 2
 13:00~15:00 voc논문 데이터베이스 구조화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00~10:00 "자연어처리 이론 및 실습" - 특이값 분해 &amp; 직교행렬 &amp; 대각행렬(이미지 분석에 쓰임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:40~ ***토픽모델링(LSA잠재의미 분석)
+16:00 조퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">09:30~12:00 LSA 실습
+12:00~12:10 slack autu message 함수 구현
+13:00~13:40 workbench database setup
+18:00~20:00 product_name mergeing
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:20~ 객체와 클래스
+13:00~ Character(Knight, Healer)클래스 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00~10:20 도연님집에서 역삼으로
+10:20~12:10 잠재 디리클레 할당~
+13:00 파이썬 패키지 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0813</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00~10:30 LDA실습
+10:00~13:00 윤성이형 pageRank 완성
+13:00~ sqlMagic
+14:00~ https://wikidocs.net/35476 파이썬 자연어처리 공부
+17:00~18:30 페이지랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0814</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">09:30~ 토픽 모델링 실습, sklearn 활용 LSA 토픽 모델링
+10:00~10:40 "sklearn LDA 토픽 모델링 시각화": 
+- pyLDAvis 활용한 LDA 시각화,  - dataframe 꿀팁들이 들어있음, - corpora를 통해 딕셔너리 만들기,
+11:00~ 텐서플로와 머신러닝으로 시작하는 자연어 처리
+- 61페이지 countVectorizer,      --------T fidfVectorizer            --------HashingVectorizer
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107페이지부터 본격적으로 시작
+- 단어 임베딩 방법론
+    1) Word2Vec
+    2) GloVe
+    3) FastText(by FaceBook, sns corpus에 아주 적합)
+- "자연어처리 이론 및 실습.pdf(word2Vec)
+- CBow &amp; Skip-gram(예측 하는 결과값이 서로 정반대의 과정을 가짐)
+11:50~ "단어의표현ipynb", 워드임베딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3933,17 +4017,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18.09765625" customWidth="1"/>
-    <col min="4" max="4" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" customWidth="1"/>
+    <col min="3" max="3" width="24.19921875" customWidth="1"/>
+    <col min="4" max="4" width="21.8984375" customWidth="1"/>
     <col min="5" max="5" width="22.09765625" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" customWidth="1"/>
+    <col min="7" max="7" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
@@ -3997,14 +4085,66 @@
       <c r="A4" s="15" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="19" customFormat="1" ht="92.4" x14ac:dyDescent="0.4">
+      <c r="B4" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="19" customFormat="1" ht="105.6" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>299</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="19" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="237" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>